--- a/Documents/SubCategory list.xlsx
+++ b/Documents/SubCategory list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>SubCategoryName</t>
   </si>
@@ -57,20 +57,38 @@
     <t>C:\Users\user\Desktop\Mallesh\plctest.jpg</t>
   </si>
   <si>
-    <t>PLC INPUT Ser11</t>
-  </si>
-  <si>
     <t>58923654-PLC INPUT Ser11</t>
   </si>
   <si>
     <t>CategoryId</t>
+  </si>
+  <si>
+    <t>PLC OUTPUT MODULE</t>
+  </si>
+  <si>
+    <t>PLC  I/O MODULE</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>PLC IO mod desc</t>
+  </si>
+  <si>
+    <t>cpu desc sub cat</t>
+  </si>
+  <si>
+    <t>PLC OUTPUT MOD 11cat</t>
+  </si>
+  <si>
+    <t>plcout mod cat 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +120,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,13 +148,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -481,7 +509,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -504,15 +532,15 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -528,6 +556,48 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
